--- a/biology/Zoologie/Aphrophoridae/Aphrophoridae.xlsx
+++ b/biology/Zoologie/Aphrophoridae/Aphrophoridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aphrophoridae sont une famille d'insectes de l'ordre des hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre), du sous-ordre des Auchenorrhyncha.
 </t>
@@ -511,7 +523,9 @@
           <t>Sous-famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aphrophorinae Licent 1912</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Liste des genres présents en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aphrophora Germar 1821
 Lepyronia  Amyot &amp; Serville 1843
@@ -577,9 +593,11 @@
           <t>Liste des genres non inclus dans la sous-famille des Aphrophorinae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib en 2023, les genres non inclus dans la sous-famille des Aphrophorinae sont au nombre de vingt-six[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib en 2023, les genres non inclus dans la sous-famille des Aphrophorinae sont au nombre de vingt-six :
 Abbalomba Distant, 1908
 Abdas Distant, 1916
 Amarusa Walker, 1857
